--- a/2023.xlsx
+++ b/2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b62176f68eb117a/Documents/developer/github.com/squirke1/fantasygp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b62176f68eb117a/Documents/developer/fantasygp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{AB764A21-3048-3744-A838-992ABB43787A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF040625-7809-8347-96AF-6F9F19BB5FDD}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{AB764A21-3048-3744-A838-992ABB43787A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67A2C4BB-5D71-3644-BC8F-EB31FA1BBB71}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{3648D438-A9E2-1540-B751-F133A9847AA7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Driver</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Williams</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -201,36 +204,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -349,6 +332,24 @@
         <name val="Roboto"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -537,18 +538,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2996C946-2479-DD43-81B4-9BC3099537EC}" name="Table2" displayName="Table2" ref="A24:F34" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2996C946-2479-DD43-81B4-9BC3099537EC}" name="Table2" displayName="Table2" ref="A24:F34" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A24:F34" xr:uid="{2996C946-2479-DD43-81B4-9BC3099537EC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:F34">
     <sortCondition descending="1" ref="D24:D34"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5EB3F81B-B037-3C49-B9BE-9BE084944898}" name="Car" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{59E75204-CC2E-6448-8396-1533F6A8152C}" name="Race" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{A86EEC57-77E7-5343-A807-0C0CF8FFCE42}" name="Bonus" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{708A59B1-2810-E846-8A7E-80E655D2732F}" name="Total" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{79540E10-1B40-144A-9777-CFB8B461601C}" name="Cost" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{3FFE9C50-347A-E645-AB03-50D79B8F3442}" name="Value" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5EB3F81B-B037-3C49-B9BE-9BE084944898}" name="Car" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{59E75204-CC2E-6448-8396-1533F6A8152C}" name="Race" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{A86EEC57-77E7-5343-A807-0C0CF8FFCE42}" name="Bonus" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{708A59B1-2810-E846-8A7E-80E655D2732F}" name="Total" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{79540E10-1B40-144A-9777-CFB8B461601C}" name="Cost" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{3FFE9C50-347A-E645-AB03-50D79B8F3442}" name="Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -874,7 +875,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1455,24 +1456,19 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1480,6 +1476,9 @@
       </c>
       <c r="F24" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="M24" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1526,6 +1525,9 @@
       </c>
       <c r="K26">
         <v>52</v>
+      </c>
+      <c r="M26" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
